--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-353700.2385211305</v>
+        <v>-355587.8200375322</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>105.9455272731791</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>158.7643741067584</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>39.37164904375792</v>
       </c>
       <c r="X4" t="n">
-        <v>193.5756411391279</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>113.6631930388958</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>209.0940911210002</v>
       </c>
     </row>
     <row r="6">
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>53.80100608808075</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>62.27914576410203</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>199.6091794142931</v>
+        <v>191.43083439863</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>22.13395527711988</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.938553216412018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273987</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560521</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>76.27978370493503</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2.98632585327141e-12</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>183.5107205555112</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206819</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>111.8652689647488</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>134.9741352843359</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>24.3676106249977</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>276.2330889766189</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2132,7 +2132,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>42.4589692148546</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>149.7110267687787</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,7 +2296,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>204.129165153205</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>93.70991968893317</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>180.0334712995417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.62872355338</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965521</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801203</v>
       </c>
       <c r="F31" t="n">
-        <v>78.67531269948284</v>
+        <v>90.2177913943741</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348203</v>
+        <v>39.73363428563966</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897884</v>
+        <v>93.71057173897898</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571471</v>
+        <v>55.21598883571485</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523552</v>
+        <v>54.76109577523565</v>
       </c>
       <c r="S31" t="n">
-        <v>142.717553355046</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.344304429832</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080337</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235375</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463113</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1470.569074795015</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1491.745889830415</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1491.745889830415</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1105.957637232171</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>694.9717324425633</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4373,7 +4373,7 @@
         <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1857.168914859137</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="3">
@@ -4410,7 +4410,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598708</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2319.969675542399</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C4" t="n">
-        <v>2319.969675542399</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>2169.853036130063</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>2169.853036130063</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V4" t="n">
-        <v>2697.149091018222</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="W4" t="n">
-        <v>2697.149091018222</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="X4" t="n">
-        <v>2501.618140372639</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="Y4" t="n">
-        <v>2501.618140372639</v>
+        <v>369.7691122461817</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1060.400888678774</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C5" t="n">
-        <v>1060.400888678774</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>1060.400888678774</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1060.400888678774</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>649.4149838891667</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W5" t="n">
-        <v>1837.140060718708</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X5" t="n">
-        <v>1837.140060718708</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="Y5" t="n">
-        <v>1447.000728742896</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.2874324143854</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>108.2874324143854</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>108.2874324143854</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>108.2874324143854</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>108.2874324143854</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>665.2207561618867</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="T7" t="n">
-        <v>336.2769833124028</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="U7" t="n">
-        <v>336.2769833124028</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="V7" t="n">
-        <v>336.2769833124028</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="W7" t="n">
-        <v>336.2769833124028</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="X7" t="n">
-        <v>108.2874324143854</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.2874324143854</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1405.321187657107</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>1791.921027721229</v>
+        <v>2327.607124141857</v>
       </c>
       <c r="W8" t="n">
-        <v>1791.921027721229</v>
+        <v>2327.607124141857</v>
       </c>
       <c r="X8" t="n">
-        <v>1791.921027721229</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="Y8" t="n">
-        <v>1791.921027721229</v>
+        <v>1954.141365880777</v>
       </c>
     </row>
     <row r="9">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>498.8626623130036</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>381.6292235663332</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W10" t="n">
-        <v>500.820796875036</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X10" t="n">
-        <v>500.820796875036</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y10" t="n">
-        <v>498.8626623130036</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,16 +5024,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,10 +5042,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,34 +5057,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5127,16 +5127,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>324.384017443263</v>
+        <v>545.6648329070744</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>545.6648329070744</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947387</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123455</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5200,49 +5200,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688068</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799358</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585742</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557898</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557898</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352011</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150502</v>
+        <v>731.0291971045605</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8250614170329</v>
+        <v>731.0291971045605</v>
       </c>
       <c r="Y13" t="n">
-        <v>506.0324822735028</v>
+        <v>545.6648329070744</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5276,7 +5276,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5294,34 +5294,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1595.645765494011</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N15" t="n">
-        <v>1925.508393158044</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O15" t="n">
-        <v>2205.048458376741</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2410.070939158951</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>379.1484955647068</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C16" t="n">
-        <v>210.2123126367999</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D16" t="n">
-        <v>210.2123126367999</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>210.2123126367998</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>210.2123126367998</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>210.2123126367998</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5455,31 +5455,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1362.578760169685</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1138.79334495919</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>1138.79334495919</v>
       </c>
       <c r="V16" t="n">
-        <v>1298.996260473455</v>
+        <v>884.1088567533034</v>
       </c>
       <c r="W16" t="n">
-        <v>1009.579090436494</v>
+        <v>594.6916867163428</v>
       </c>
       <c r="X16" t="n">
-        <v>781.5895395384766</v>
+        <v>594.6916867163428</v>
       </c>
       <c r="Y16" t="n">
-        <v>560.7969603949465</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
     <row r="17">
@@ -5498,34 +5498,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5534,7 +5534,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>847.2212943649427</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>678.2851114370358</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>528.1684720247</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>380.2553784423069</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>233.3654309443964</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5674,13 +5674,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1219.892948359297</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>965.2084601534104</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W19" t="n">
-        <v>675.7912901164498</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X19" t="n">
-        <v>447.8017392184324</v>
+        <v>847.2212943649427</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.8017392184324</v>
+        <v>847.2212943649427</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,40 +5735,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5844,10 +5844,10 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>549.6692635248395</v>
+        <v>565.2896273329885</v>
       </c>
       <c r="C22" t="n">
-        <v>506.7814158330673</v>
+        <v>396.3534444050816</v>
       </c>
       <c r="D22" t="n">
-        <v>356.6647764207315</v>
+        <v>396.3534444050816</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>248.4403508226885</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>248.4403508226885</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609661</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550792</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W22" t="n">
-        <v>731.3177283550792</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X22" t="n">
-        <v>731.3177283550792</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="Y22" t="n">
-        <v>731.3177283550792</v>
+        <v>565.2896273329885</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,10 +5987,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,28 +6005,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6072,22 +6072,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6175,13 +6175,13 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
         <v>325.2066423583032</v>
@@ -6203,13 +6203,13 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
         <v>904.3190116155888</v>
@@ -6224,10 +6224,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,10 +6242,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>394.223678370532</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C28" t="n">
-        <v>394.223678370532</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V28" t="n">
-        <v>1275.130855347408</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W28" t="n">
-        <v>985.7136853104473</v>
+        <v>436.7412337363557</v>
       </c>
       <c r="X28" t="n">
-        <v>757.72413441243</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y28" t="n">
-        <v>575.8721432007717</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6461,10 +6461,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542219</v>
+        <v>565.4200295030885</v>
       </c>
       <c r="C31" t="n">
-        <v>439.5324299542219</v>
+        <v>565.4200295030885</v>
       </c>
       <c r="D31" t="n">
-        <v>439.5324299542219</v>
+        <v>471.0642553721239</v>
       </c>
       <c r="E31" t="n">
-        <v>439.5324299542219</v>
+        <v>378.9120270711016</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264615</v>
+        <v>287.7829448545622</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276531</v>
+        <v>247.6479607276534</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864675</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933507</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667516</v>
+        <v>671.450905366751</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962059</v>
+        <v>997.6688721962054</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096196</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167072</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662001</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737486</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818961</v>
+        <v>902.6804289818941</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652497</v>
+        <v>730.4517433652477</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030904</v>
+        <v>565.4200295030885</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504503</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210312</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
@@ -6962,22 +6962,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,25 +7014,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7151,31 +7151,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7196,22 +7196,22 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254953</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7388,10 +7388,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,13 +7400,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7427,13 +7427,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
@@ -7594,25 +7594,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2050.644882483981</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649689</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8775,19 +8775,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>104.6241510367947</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>116.9087390531959</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9492,13 +9492,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,7 +9720,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,13 +11385,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>73.53204524670059</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>90.96703739369281</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23467,7 +23467,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>35.07393279658358</v>
       </c>
     </row>
     <row r="14">
@@ -23662,13 +23662,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>37.04855940278732</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>62.94667469926736</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>142.1259578383799</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,19 +23938,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>10.00426342195843</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>124.7878518837732</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>16.78254169459893</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338575</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>82.39383318338599</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>192.8130786476578</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>38.55118205255309</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700705</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965507</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801189</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>11.54247869489113</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>71.55667754918078</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2.131628207280301e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="C2" t="n">
         <v>246312.5309592849</v>
@@ -26320,10 +26320,10 @@
         <v>246312.5309592849</v>
       </c>
       <c r="E2" t="n">
-        <v>234617.4358426251</v>
+        <v>234617.4358426252</v>
       </c>
       <c r="F2" t="n">
-        <v>234617.4358426251</v>
+        <v>234617.4358426252</v>
       </c>
       <c r="G2" t="n">
         <v>234617.4358426252</v>
@@ -26332,7 +26332,7 @@
         <v>234617.4358426252</v>
       </c>
       <c r="I2" t="n">
-        <v>234617.4358426251</v>
+        <v>234617.4358426252</v>
       </c>
       <c r="J2" t="n">
         <v>234617.4358426252</v>
@@ -26341,7 +26341,7 @@
         <v>244093.2824071618</v>
       </c>
       <c r="L2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.5309592852</v>
       </c>
       <c r="M2" t="n">
         <v>246312.5309592852</v>
@@ -26350,10 +26350,10 @@
         <v>246312.5309592851</v>
       </c>
       <c r="O2" t="n">
+        <v>246312.530959285</v>
+      </c>
+      <c r="P2" t="n">
         <v>246312.5309592852</v>
-      </c>
-      <c r="P2" t="n">
-        <v>246312.5309592851</v>
       </c>
     </row>
     <row r="3">
@@ -26390,10 +26390,10 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284583</v>
+        <v>44162.60530284572</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086668</v>
+        <v>10342.9068008668</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284584</v>
+        <v>44162.60530284574</v>
       </c>
     </row>
     <row r="4">
@@ -26427,13 +26427,13 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26442,19 +26442,19 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563572</v>
+        <v>33210.29213563568</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275958</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.4568627596</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26479,7 +26479,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26488,28 +26488,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-583289.3845698915</v>
+        <v>-583289.3845698916</v>
       </c>
       <c r="C6" t="n">
-        <v>6678.49464465279</v>
+        <v>6678.494644652819</v>
       </c>
       <c r="D6" t="n">
-        <v>6678.494644652848</v>
+        <v>6678.494644652819</v>
       </c>
       <c r="E6" t="n">
-        <v>-397575.5962044267</v>
+        <v>-397673.0553303988</v>
       </c>
       <c r="F6" t="n">
-        <v>127584.4402724694</v>
+        <v>127486.9811464973</v>
       </c>
       <c r="G6" t="n">
-        <v>127584.4402724695</v>
+        <v>127486.9811464974</v>
       </c>
       <c r="H6" t="n">
-        <v>127584.4402724695</v>
+        <v>127486.9811464973</v>
       </c>
       <c r="I6" t="n">
-        <v>127584.4402724694</v>
+        <v>127486.9811464974</v>
       </c>
       <c r="J6" t="n">
-        <v>-48838.77892012343</v>
+        <v>-48936.23804609556</v>
       </c>
       <c r="K6" t="n">
-        <v>70092.17643845741</v>
+        <v>70073.6827005232</v>
       </c>
       <c r="L6" t="n">
-        <v>100790.0614756335</v>
+        <v>100790.0614756334</v>
       </c>
       <c r="M6" t="n">
-        <v>-23668.04695733704</v>
+        <v>-23668.04695733695</v>
       </c>
       <c r="N6" t="n">
         <v>111132.9682765001</v>
       </c>
       <c r="O6" t="n">
-        <v>111132.9682765003</v>
+        <v>111132.9682765</v>
       </c>
       <c r="P6" t="n">
-        <v>66970.36297365426</v>
+        <v>66970.36297365445</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26747,7 +26747,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26756,7 +26756,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26774,7 +26774,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108335</v>
+        <v>12.9286335010835</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285573</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="3">
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855715</v>
       </c>
     </row>
     <row r="3">
@@ -27379,19 +27379,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>259.3273644978285</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>255.0197959140366</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27591,16 +27591,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>247.1513492928331</v>
       </c>
       <c r="X4" t="n">
-        <v>32.13401424990926</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>300.1209769818992</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>177.1438475350534</v>
       </c>
     </row>
     <row r="6">
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>113.5087961709702</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.38604621605583</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>128.1430790558418</v>
+        <v>136.3214240715049</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>126.4815177410925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>216.6461001356828</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.463149601477198e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-2.98632585327141e-12</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-4.852779511566041e-12</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.041087216435699e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855715</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35495,19 +35495,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>415.0485280872609</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006117959</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
         <v>39.22569997187475</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>642.8663885318339</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>204.92177183827</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36212,13 +36212,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>462.3874039146955</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941228</v>
+        <v>67.71102679412266</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084858</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043203</v>
+        <v>94.42895660043189</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>278.7330645958065</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38096,7 +38096,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38105,13 +38105,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>280.6254601782252</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
